--- a/docs/data/output/survey_processing/eda_scheme1.xlsx
+++ b/docs/data/output/survey_processing/eda_scheme1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\TRM\trm_project\repo_trmg2\docs\data\output\survey_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C07AB480-FAB0-4055-A1A7-59C080EAB2D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80AC9163-3B66-4BBF-8CA5-64E0CFE64C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>tour_type</t>
   </si>
@@ -34,22 +34,55 @@
     <t>duration</t>
   </si>
   <si>
+    <t>samples</t>
+  </si>
+  <si>
     <t>wTrips</t>
   </si>
   <si>
-    <t>r_size</t>
-  </si>
-  <si>
-    <t>r_seniors</t>
-  </si>
-  <si>
-    <t>r_kids</t>
-  </si>
-  <si>
-    <t>r_income</t>
-  </si>
-  <si>
-    <t>r_veh</t>
+    <t>r_othpers</t>
+  </si>
+  <si>
+    <t>r_is_worker</t>
+  </si>
+  <si>
+    <t>r_othworkers</t>
+  </si>
+  <si>
+    <t>r_is_senior</t>
+  </si>
+  <si>
+    <t>r_othseniors</t>
+  </si>
+  <si>
+    <t>r_is_kid</t>
+  </si>
+  <si>
+    <t>r_othkids</t>
+  </si>
+  <si>
+    <t>r_hhincome</t>
+  </si>
+  <si>
+    <t>r_hhveh</t>
+  </si>
+  <si>
+    <t>pct_bike</t>
+  </si>
+  <si>
+    <t>pct_bus</t>
+  </si>
+  <si>
+    <t>pct_hov</t>
+  </si>
+  <si>
+    <t>pct_sov</t>
+  </si>
+  <si>
+    <t>pct_walk</t>
+  </si>
+  <si>
+    <t>pct_other</t>
   </si>
   <si>
     <t>pct_AM</t>
@@ -64,24 +97,6 @@
     <t>pct_PM</t>
   </si>
   <si>
-    <t>pct_bike</t>
-  </si>
-  <si>
-    <t>pct_bus</t>
-  </si>
-  <si>
-    <t>pct_hov</t>
-  </si>
-  <si>
-    <t>pct_sov</t>
-  </si>
-  <si>
-    <t>pct_walk</t>
-  </si>
-  <si>
-    <t>pct_other</t>
-  </si>
-  <si>
     <t>wAvgTrpLen</t>
   </si>
   <si>
@@ -149,18 +164,6 @@
   </si>
   <si>
     <t>SHP</t>
-  </si>
-  <si>
-    <t>EAT-O</t>
-  </si>
-  <si>
-    <t>EAT-SHP</t>
-  </si>
-  <si>
-    <t>samples</t>
-  </si>
-  <si>
-    <t>Collapse</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -812,83 +815,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -934,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -945,25 +871,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1319,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1335,126 +1253,140 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="W1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="2">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="F2" s="2">
-        <v>67296</v>
+        <v>67074</v>
       </c>
       <c r="G2" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.115</v>
       </c>
       <c r="H2" s="2">
-        <v>-6.3E-2</v>
+        <v>0.155</v>
       </c>
       <c r="I2" s="2">
-        <v>6.2E-2</v>
+        <v>0.105</v>
       </c>
       <c r="J2" s="2">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="L2" s="1">
-        <v>75.900000000000006</v>
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="M2" s="2">
-        <v>7.1</v>
+        <v>0.192</v>
       </c>
       <c r="N2" s="2">
-        <v>17</v>
-      </c>
-      <c r="O2" s="3"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1.6E-2</v>
+      </c>
       <c r="P2" s="1">
         <v>0.3</v>
       </c>
@@ -1465,91 +1397,101 @@
         <v>86.1</v>
       </c>
       <c r="S2" s="2">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="T2" s="2">
         <v>0.2</v>
       </c>
       <c r="U2" s="3"/>
-      <c r="V2" s="17">
-        <v>4.9800000000000004</v>
+      <c r="V2" s="1">
+        <v>76.2</v>
       </c>
       <c r="W2" s="2">
-        <v>-1.0999999999999999E-2</v>
+        <v>7.2</v>
       </c>
       <c r="X2" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AB2" s="2">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="Y2" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AA2" s="2">
+      <c r="AC2" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AE2" s="2">
         <v>-0.107</v>
       </c>
-      <c r="AB2" s="3">
-        <v>-6.0000000000000001E-3</v>
+      <c r="AF2" s="3">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="5">
-        <v>1284</v>
+        <v>1083</v>
       </c>
       <c r="F3" s="5">
-        <v>188639</v>
+        <v>188860</v>
       </c>
       <c r="G3" s="4">
-        <v>0.14399999999999999</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>-0.04</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="I3" s="5">
-        <v>8.5999999999999993E-2</v>
+        <v>0.129</v>
       </c>
       <c r="J3" s="5">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="L3" s="4">
-        <v>10.3</v>
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>-0.13900000000000001</v>
       </c>
       <c r="M3" s="5">
-        <v>35.5</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="N3" s="5">
-        <v>36.4</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="O3" s="6">
-        <v>17.899999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P3" s="4">
         <v>0.6</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R3" s="5">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="S3" s="5">
-        <v>74.099999999999994</v>
+        <v>74</v>
       </c>
       <c r="T3" s="5">
         <v>2.8</v>
@@ -1557,73 +1499,85 @@
       <c r="U3" s="6">
         <v>0.2</v>
       </c>
-      <c r="V3" s="18">
-        <v>6.7</v>
+      <c r="V3" s="4">
+        <v>10.3</v>
       </c>
       <c r="W3" s="5">
-        <v>0.25900000000000001</v>
+        <v>29.1</v>
       </c>
       <c r="X3" s="5">
+        <v>42.4</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>6.69</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AB3" s="5">
         <v>0.39900000000000002</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="AC3" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="Z3" s="5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>0.125</v>
+      <c r="AD3" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="5">
-        <v>2135</v>
+        <v>1576</v>
       </c>
       <c r="F4" s="5">
         <v>324893</v>
       </c>
       <c r="G4" s="4">
-        <v>0.14399999999999999</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>-5.8999999999999997E-2</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="I4" s="5">
-        <v>9.7000000000000003E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J4" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="K4" s="6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>17.5</v>
+        <v>-0.128</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-0.16400000000000001</v>
       </c>
       <c r="M4" s="5">
-        <v>35.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4" s="5">
-        <v>21.6</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="O4" s="6">
-        <v>25.8</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="P4" s="4">
         <v>0.4</v>
@@ -1641,73 +1595,85 @@
         <v>7.4</v>
       </c>
       <c r="U4" s="6"/>
-      <c r="V4" s="18">
+      <c r="V4" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="W4" s="5">
+        <v>22.7</v>
+      </c>
+      <c r="X4" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>32.9</v>
+      </c>
+      <c r="Z4" s="18">
         <v>4.66</v>
       </c>
-      <c r="W4" s="5">
+      <c r="AA4" s="4">
         <v>0.14299999999999999</v>
       </c>
-      <c r="X4" s="5">
+      <c r="AB4" s="5">
         <v>0.35399999999999998</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="AC4" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AD4" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AE4" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AF4" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="14">
-        <v>5897</v>
+        <v>3610</v>
       </c>
       <c r="F5" s="14">
         <v>646543</v>
       </c>
       <c r="G5" s="13">
-        <v>0.14000000000000001</v>
+        <v>-0.121</v>
       </c>
       <c r="H5" s="14">
-        <v>-0.104</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I5" s="14">
-        <v>-1.4E-2</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="J5" s="14">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="L5" s="13">
-        <v>29</v>
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="K5" s="14">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="L5" s="14">
+        <v>-0.27800000000000002</v>
       </c>
       <c r="M5" s="14">
-        <v>27.1</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="N5" s="14">
-        <v>22.7</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="O5" s="15">
-        <v>21.3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P5" s="13">
         <v>1.2</v>
@@ -1727,73 +1693,85 @@
       <c r="U5" s="15">
         <v>0.1</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="13">
+        <v>29</v>
+      </c>
+      <c r="W5" s="14">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="X5" s="14">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>26.9</v>
+      </c>
+      <c r="Z5" s="19">
         <v>10.73</v>
       </c>
-      <c r="W5" s="14">
+      <c r="AA5" s="13">
         <v>0.59399999999999997</v>
       </c>
-      <c r="X5" s="14">
+      <c r="AB5" s="14">
         <v>0.159</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="AC5" s="14">
         <v>0.184</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AD5" s="14">
         <v>0.45900000000000002</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AE5" s="14">
         <v>0.161</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AF5" s="15">
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="5">
-        <v>1623</v>
+        <v>856</v>
       </c>
       <c r="F6" s="5">
         <v>239218</v>
       </c>
       <c r="G6" s="4">
-        <v>0.05</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>-2.1999999999999999E-2</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="I6" s="5">
-        <v>-5.0000000000000001E-3</v>
+        <v>0.107</v>
       </c>
       <c r="J6" s="5">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K6" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>5.9</v>
+        <v>-9.4E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-0.121</v>
       </c>
       <c r="M6" s="5">
-        <v>72.3</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="N6" s="5">
-        <v>11.3</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="O6" s="6">
-        <v>10.5</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="P6" s="4">
         <v>0.1</v>
@@ -1811,73 +1789,85 @@
         <v>15.7</v>
       </c>
       <c r="U6" s="6"/>
-      <c r="V6" s="18">
+      <c r="V6" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="5">
+        <v>65.3</v>
+      </c>
+      <c r="X6" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="Z6" s="18">
         <v>4.04</v>
       </c>
-      <c r="W6" s="5">
+      <c r="AA6" s="4">
         <v>0.27</v>
       </c>
-      <c r="X6" s="5">
+      <c r="AB6" s="5">
         <v>0.43</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AC6" s="5">
         <v>-2.3E-2</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AD6" s="5">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AE6" s="5">
         <v>0.125</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AF6" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="5">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="F7" s="5">
-        <v>75267</v>
+        <v>75045</v>
       </c>
       <c r="G7" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H7" s="5">
-        <v>-2.5999999999999999E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="I7" s="5">
-        <v>0.122</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L7" s="4">
-        <v>81.5</v>
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M7" s="5">
-        <v>11.3</v>
+        <v>0.182</v>
       </c>
       <c r="N7" s="5">
-        <v>6.8</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="O7" s="6">
-        <v>0.4</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P7" s="4">
         <v>0.3</v>
@@ -1886,82 +1876,94 @@
         <v>1.5</v>
       </c>
       <c r="R7" s="5">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="S7" s="5">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="V7" s="18">
+      <c r="V7" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="W7" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="X7" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Z7" s="18">
         <v>7.62</v>
       </c>
-      <c r="W7" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>1.4E-2</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AE7" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AB7" s="6">
-        <v>0.13200000000000001</v>
+      <c r="AF7" s="6">
+        <v>0.122</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="5">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="F8" s="5">
         <v>70741</v>
       </c>
       <c r="G8" s="4">
-        <v>0.112</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="H8" s="5">
-        <v>-0.121</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I8" s="5">
-        <v>6.7000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>7.3</v>
+        <v>-0.05</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="M8" s="5">
-        <v>54</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="N8" s="5">
-        <v>12.3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O8" s="6">
-        <v>26.4</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="P8" s="4">
         <v>0.1</v>
@@ -1981,73 +1983,85 @@
       <c r="U8" s="6">
         <v>0.2</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="W8" s="5">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="X8" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Z8" s="18">
         <v>5.78</v>
       </c>
-      <c r="W8" s="5">
+      <c r="AA8" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="X8" s="5">
+      <c r="AB8" s="5">
         <v>0.28899999999999998</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="AC8" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AD8" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AE8" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AF8" s="6">
         <v>0.104</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="5">
-        <v>800</v>
+        <v>538</v>
       </c>
       <c r="F9" s="5">
         <v>159496</v>
       </c>
       <c r="G9" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="H9" s="5">
-        <v>8.9999999999999993E-3</v>
+        <v>0.158</v>
       </c>
       <c r="I9" s="5">
-        <v>-1.0999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>11.2</v>
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M9" s="5">
-        <v>41.4</v>
+        <v>2E-3</v>
       </c>
       <c r="N9" s="5">
-        <v>17.3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="O9" s="6">
-        <v>30.1</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="P9" s="4">
         <v>0.2</v>
@@ -2067,73 +2081,85 @@
       <c r="U9" s="6">
         <v>0.2</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="W9" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="X9" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="Z9" s="18">
         <v>4.3499999999999996</v>
       </c>
-      <c r="W9" s="5">
+      <c r="AA9" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="X9" s="5">
+      <c r="AB9" s="5">
         <v>0.188</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="AC9" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AD9" s="5">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AE9" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AF9" s="6">
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="14">
-        <v>3896</v>
+        <v>2236</v>
       </c>
       <c r="F10" s="14">
-        <v>565327</v>
+        <v>565549</v>
       </c>
       <c r="G10" s="13">
-        <v>7.8E-2</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="H10" s="14">
-        <v>-3.9E-2</v>
+        <v>0.36</v>
       </c>
       <c r="I10" s="14">
-        <v>0.04</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J10" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K10" s="15">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="L10" s="13">
-        <v>12.1</v>
+        <v>-0.126</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>-0.18</v>
       </c>
       <c r="M10" s="14">
-        <v>57.6</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N10" s="14">
-        <v>7.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O10" s="15">
-        <v>23.2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="P10" s="13">
         <v>0.4</v>
@@ -2153,73 +2179,85 @@
       <c r="U10" s="15">
         <v>0.5</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="W10" s="14">
+        <v>41.9</v>
+      </c>
+      <c r="X10" s="14">
+        <v>10.6</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>35.4</v>
+      </c>
+      <c r="Z10" s="19">
         <v>6.66</v>
       </c>
-      <c r="W10" s="14">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="X10" s="14">
+      <c r="AA10" s="13">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AB10" s="14">
         <v>0.311</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="AC10" s="14">
         <v>0.126</v>
       </c>
-      <c r="Z10" s="14">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>0.308</v>
-      </c>
-      <c r="AB10" s="15">
-        <v>0.42799999999999999</v>
+      <c r="AD10" s="14">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>0.307</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="5">
-        <v>1945</v>
+        <v>1260</v>
       </c>
       <c r="F11" s="5">
         <v>277356</v>
       </c>
       <c r="G11" s="4">
-        <v>0.32900000000000001</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="H11" s="5">
-        <v>-4.7E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>0.26500000000000001</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="L11" s="4">
-        <v>3.8</v>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="M11" s="5">
-        <v>27.1</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="N11" s="5">
-        <v>43</v>
+        <v>3.1E-2</v>
       </c>
       <c r="O11" s="6">
-        <v>26.1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="P11" s="4">
         <v>0.7</v>
@@ -2239,159 +2277,183 @@
       <c r="U11" s="6">
         <v>0.1</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="W11" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="X11" s="5">
+        <v>51.1</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="Z11" s="18">
         <v>4.6900000000000004</v>
       </c>
-      <c r="W11" s="5">
+      <c r="AA11" s="4">
         <v>0.20200000000000001</v>
       </c>
-      <c r="X11" s="5">
+      <c r="AB11" s="5">
         <v>0.39400000000000002</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="AC11" s="5">
         <v>-2.4E-2</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AD11" s="5">
         <v>2E-3</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AE11" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AF11" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="5">
-        <v>2569</v>
+        <v>1501</v>
       </c>
       <c r="F12" s="5">
-        <v>516134</v>
+        <v>515124</v>
       </c>
       <c r="G12" s="4">
-        <v>0.434</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="H12" s="5">
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="I12" s="5">
-        <v>0.46100000000000002</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="J12" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K12" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>45.4</v>
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-0.106</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.505</v>
       </c>
       <c r="M12" s="5">
-        <v>34.1</v>
+        <v>0.249</v>
       </c>
       <c r="N12" s="5">
-        <v>15</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="O12" s="6">
-        <v>5.5</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="P12" s="4">
         <v>0.4</v>
       </c>
       <c r="Q12" s="5">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="R12" s="5">
         <v>56.4</v>
       </c>
       <c r="S12" s="5">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="T12" s="5">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U12" s="6">
         <v>0</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="W12" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="X12" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>23.2</v>
+      </c>
+      <c r="Z12" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W12" s="5">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-      <c r="X12" s="5">
+      <c r="AA12" s="4">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="AB12" s="5">
         <v>-0.1</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AC12" s="5">
         <v>-5.6000000000000001E-2</v>
       </c>
-      <c r="Z12" s="5">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>-7.8E-2</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>-0.1</v>
+      <c r="AD12" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="5">
-        <v>6892</v>
+        <v>3750</v>
       </c>
       <c r="F13" s="5">
-        <v>935472</v>
+        <v>936482</v>
       </c>
       <c r="G13" s="4">
-        <v>0.33600000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H13" s="5">
-        <v>-9.4E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="I13" s="5">
-        <v>0.29599999999999999</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="L13" s="4">
-        <v>10</v>
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M13" s="5">
-        <v>35.799999999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N13" s="5">
-        <v>32.9</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="O13" s="6">
-        <v>21.4</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="P13" s="4">
         <v>1.2</v>
@@ -2403,7 +2465,7 @@
         <v>51.7</v>
       </c>
       <c r="S13" s="5">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="T13" s="5">
         <v>6.8</v>
@@ -2411,73 +2473,85 @@
       <c r="U13" s="6">
         <v>0.3</v>
       </c>
-      <c r="V13" s="18">
-        <v>6.76</v>
+      <c r="V13" s="4">
+        <v>10</v>
       </c>
       <c r="W13" s="5">
-        <v>0.20499999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="X13" s="5">
+        <v>39.5</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>6.75</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AB13" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="Y13" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>0.374</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>0.121</v>
+      <c r="AC13" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0.123</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="5">
-        <v>5416</v>
+        <v>2610</v>
       </c>
       <c r="F14" s="5">
         <v>820536</v>
       </c>
       <c r="G14" s="4">
-        <v>0.29599999999999999</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H14" s="5">
-        <v>-0.126</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="I14" s="5">
-        <v>0.27400000000000002</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K14" s="6">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>13.5</v>
+        <v>2.7E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-4.7E-2</v>
       </c>
       <c r="M14" s="5">
-        <v>42.8</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="N14" s="5">
-        <v>24</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O14" s="6">
-        <v>19.7</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="P14" s="4">
         <v>2.2999999999999998</v>
@@ -2497,73 +2571,85 @@
       <c r="U14" s="6">
         <v>0.2</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="W14" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="X14" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="Z14" s="18">
         <v>3.43</v>
       </c>
-      <c r="W14" s="5">
+      <c r="AA14" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="X14" s="5">
+      <c r="AB14" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="AC14" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AD14" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AE14" s="5">
         <v>0.155</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AF14" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="5">
-        <v>1107</v>
+        <v>750</v>
       </c>
       <c r="F15" s="5">
         <v>150526</v>
       </c>
       <c r="G15" s="4">
-        <v>0.158</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="H15" s="5">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="K15" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L15" s="5">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="M15" s="5">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="N15" s="5">
         <v>-2.7E-2</v>
       </c>
-      <c r="I15" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="J15" s="5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="L15" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="M15" s="5">
-        <v>72.3</v>
-      </c>
-      <c r="N15" s="5">
-        <v>9.1</v>
-      </c>
       <c r="O15" s="6">
-        <v>14.3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="P15" s="4">
         <v>0.1</v>
@@ -2581,73 +2667,85 @@
         <v>5.5</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="V15" s="18">
+      <c r="V15" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="W15" s="5">
+        <v>56.3</v>
+      </c>
+      <c r="X15" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="Z15" s="18">
         <v>5.09</v>
       </c>
-      <c r="W15" s="5">
+      <c r="AA15" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="X15" s="5">
+      <c r="AB15" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="AC15" s="5">
         <v>0.01</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AD15" s="5">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AE15" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AF15" s="6">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="5">
-        <v>749</v>
+        <v>503</v>
       </c>
       <c r="F16" s="5">
         <v>112922</v>
       </c>
       <c r="G16" s="4">
-        <v>0.313</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="H16" s="5">
-        <v>-7.9000000000000001E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="I16" s="5">
-        <v>0.249</v>
+        <v>-0.123</v>
       </c>
       <c r="J16" s="5">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.123</v>
-      </c>
-      <c r="L16" s="4">
-        <v>14.5</v>
+        <v>0.115</v>
+      </c>
+      <c r="K16" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="M16" s="5">
-        <v>72.5</v>
+        <v>-0.05</v>
       </c>
       <c r="N16" s="5">
-        <v>6.4</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="O16" s="6">
-        <v>6.6</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="P16" s="4">
         <v>0</v>
@@ -2665,73 +2763,85 @@
         <v>0.5</v>
       </c>
       <c r="U16" s="6"/>
-      <c r="V16" s="18">
+      <c r="V16" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="W16" s="5">
+        <v>57.7</v>
+      </c>
+      <c r="X16" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Z16" s="18">
         <v>8.9499999999999993</v>
       </c>
-      <c r="W16" s="5">
+      <c r="AA16" s="4">
         <v>0.34300000000000003</v>
       </c>
-      <c r="X16" s="5">
+      <c r="AB16" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="AC16" s="5">
         <v>-4.7E-2</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AD16" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AE16" s="5">
         <v>0.123</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AF16" s="6">
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>32</v>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="5">
-        <v>1975</v>
+        <v>1313</v>
       </c>
       <c r="F17" s="5">
         <v>289752</v>
       </c>
       <c r="G17" s="4">
-        <v>0.29899999999999999</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="H17" s="5">
-        <v>-8.4000000000000005E-2</v>
+        <v>-0.126</v>
       </c>
       <c r="I17" s="5">
-        <v>0.255</v>
+        <v>-0.16700000000000001</v>
       </c>
       <c r="J17" s="5">
-        <v>0.112</v>
-      </c>
-      <c r="K17" s="6">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="L17" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.125</v>
+      </c>
+      <c r="K17" s="5">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="M17" s="5">
-        <v>64.900000000000006</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="N17" s="5">
-        <v>17.2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="O17" s="6">
-        <v>15.7</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="P17" s="4">
         <v>0.3</v>
@@ -2751,73 +2861,85 @@
       <c r="U17" s="6">
         <v>0.4</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W17" s="5">
+        <v>52.2</v>
+      </c>
+      <c r="X17" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>25</v>
+      </c>
+      <c r="Z17" s="18">
         <v>5.3</v>
       </c>
-      <c r="W17" s="5">
+      <c r="AA17" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="X17" s="5">
+      <c r="AB17" s="5">
         <v>0.56899999999999995</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="AC17" s="5">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="AD17" s="5">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AE17" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AF17" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="14">
-        <v>2529</v>
+        <v>1663</v>
       </c>
       <c r="F18" s="14">
         <v>354264</v>
       </c>
       <c r="G18" s="13">
-        <v>0.27900000000000003</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="H18" s="14">
-        <v>-5.5E-2</v>
+        <v>-0.104</v>
       </c>
       <c r="I18" s="14">
-        <v>0.2</v>
+        <v>-0.14099999999999999</v>
       </c>
       <c r="J18" s="14">
-        <v>6.3E-2</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0.106</v>
-      </c>
-      <c r="L18" s="13">
-        <v>3.6</v>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K18" s="14">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L18" s="14">
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="M18" s="14">
-        <v>56.7</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="N18" s="14">
-        <v>23.7</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="O18" s="15">
-        <v>16</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="P18" s="13">
         <v>0.7</v>
@@ -2837,73 +2959,85 @@
       <c r="U18" s="15">
         <v>0.1</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="13">
         <v>3.6</v>
       </c>
       <c r="W18" s="14">
+        <v>43.1</v>
+      </c>
+      <c r="X18" s="14">
+        <v>27.9</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>25.4</v>
+      </c>
+      <c r="Z18" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="AA18" s="13">
         <v>0.27100000000000002</v>
       </c>
-      <c r="X18" s="14">
+      <c r="AB18" s="14">
         <v>0.47299999999999998</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="AC18" s="14">
         <v>1.6E-2</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="AD18" s="14">
         <v>-1E-3</v>
       </c>
-      <c r="AA18" s="14">
+      <c r="AE18" s="14">
         <v>0.106</v>
       </c>
-      <c r="AB18" s="15">
+      <c r="AF18" s="15">
         <v>0.152</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>30</v>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="5">
-        <v>1478</v>
+        <v>1001</v>
       </c>
       <c r="F19" s="5">
         <v>245393</v>
       </c>
       <c r="G19" s="4">
-        <v>0.33500000000000002</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="H19" s="5">
-        <v>-7.1999999999999995E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>0.28199999999999997</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>0.104</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="L19" s="4">
-        <v>5.2</v>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="M19" s="5">
-        <v>55.8</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N19" s="5">
-        <v>21.2</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="O19" s="6">
-        <v>17.899999999999999</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="P19" s="4">
         <v>0.6</v>
@@ -2923,73 +3057,85 @@
       <c r="U19" s="6">
         <v>0.3</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="W19" s="5">
+        <v>46.4</v>
+      </c>
+      <c r="X19" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="Z19" s="18">
         <v>4.95</v>
       </c>
-      <c r="W19" s="5">
+      <c r="AA19" s="4">
         <v>0.11</v>
       </c>
-      <c r="X19" s="5">
+      <c r="AB19" s="5">
         <v>0.31900000000000001</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="AC19" s="5">
         <v>-0.02</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="AD19" s="5">
         <v>-2.3E-2</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AE19" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AF19" s="6">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>30</v>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="5">
-        <v>604</v>
+        <v>499</v>
       </c>
       <c r="F20" s="5">
         <v>108919</v>
       </c>
       <c r="G20" s="4">
-        <v>0.37</v>
+        <v>-0.02</v>
       </c>
       <c r="H20" s="5">
-        <v>-7.9000000000000001E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="I20" s="5">
-        <v>0.28499999999999998</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.107</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.2</v>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L20" s="5">
+        <v>-4.7E-2</v>
       </c>
       <c r="M20" s="5">
-        <v>64.8</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="N20" s="5">
-        <v>22.7</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="O20" s="6">
-        <v>12.3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -3007,73 +3153,85 @@
         <v>4.8</v>
       </c>
       <c r="U20" s="6"/>
-      <c r="V20" s="18">
+      <c r="V20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W20" s="5">
+        <v>50.6</v>
+      </c>
+      <c r="X20" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>23.4</v>
+      </c>
+      <c r="Z20" s="18">
         <v>3.99</v>
       </c>
-      <c r="W20" s="5">
+      <c r="AA20" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="X20" s="5">
+      <c r="AB20" s="5">
         <v>0.41299999999999998</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="AC20" s="5">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="AD20" s="5">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AE20" s="5">
         <v>0.03</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AF20" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>32</v>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E21" s="5">
-        <v>2033</v>
+        <v>1543</v>
       </c>
       <c r="F21" s="5">
         <v>359718</v>
       </c>
       <c r="G21" s="4">
-        <v>0.26400000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>-0.10199999999999999</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="I21" s="5">
-        <v>0.245</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="K21" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>18.600000000000001</v>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M21" s="5">
-        <v>57.5</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="N21" s="5">
-        <v>11.4</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O21" s="6">
-        <v>12.5</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="P21" s="4">
         <v>1.1000000000000001</v>
@@ -3093,73 +3251,85 @@
       <c r="U21" s="6">
         <v>3.7</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="W21" s="5">
+        <v>41</v>
+      </c>
+      <c r="X21" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>26.4</v>
+      </c>
+      <c r="Z21" s="18">
         <v>5.61</v>
       </c>
-      <c r="W21" s="5">
+      <c r="AA21" s="4">
         <v>0.17799999999999999</v>
       </c>
-      <c r="X21" s="5">
+      <c r="AB21" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="AC21" s="5">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="AD21" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AE21" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AB21" s="6">
+      <c r="AF21" s="6">
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="5">
-        <v>1761</v>
+        <v>1264</v>
       </c>
       <c r="F22" s="5">
         <v>309032</v>
       </c>
       <c r="G22" s="4">
-        <v>0.23499999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H22" s="5">
-        <v>-0.10199999999999999</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>0.23499999999999999</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="K22" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="L22" s="4">
-        <v>9.5</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M22" s="5">
-        <v>62.6</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="N22" s="5">
-        <v>13.7</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="O22" s="6">
-        <v>14.2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="P22" s="4">
         <v>1</v>
@@ -3179,73 +3349,85 @@
       <c r="U22" s="6">
         <v>3</v>
       </c>
-      <c r="V22" s="18">
+      <c r="V22" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="W22" s="5">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="X22" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Z22" s="18">
         <v>4.32</v>
       </c>
-      <c r="W22" s="5">
+      <c r="AA22" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="X22" s="5">
+      <c r="AB22" s="5">
         <v>0.123</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="AC22" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="AD22" s="5">
         <v>0.123</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AE22" s="5">
         <v>0.35899999999999999</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AF22" s="6">
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>32</v>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E23" s="5">
-        <v>1395</v>
+        <v>1092</v>
       </c>
       <c r="F23" s="5">
         <v>250179</v>
       </c>
       <c r="G23" s="4">
-        <v>0.29499999999999998</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="H23" s="5">
-        <v>-0.14199999999999999</v>
+        <v>-0.112</v>
       </c>
       <c r="I23" s="5">
-        <v>0.25800000000000001</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="J23" s="5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K23" s="6">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="L23" s="4">
-        <v>5.5</v>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L23" s="5">
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="M23" s="5">
-        <v>76.3</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="N23" s="5">
-        <v>7.1</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="O23" s="6">
-        <v>11.1</v>
+        <v>-0.04</v>
       </c>
       <c r="P23" s="4">
         <v>0.4</v>
@@ -3265,73 +3447,85 @@
       <c r="U23" s="6">
         <v>0.3</v>
       </c>
-      <c r="V23" s="18">
+      <c r="V23" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="W23" s="5">
+        <v>61.1</v>
+      </c>
+      <c r="X23" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="Z23" s="18">
         <v>5.57</v>
       </c>
-      <c r="W23" s="5">
+      <c r="AA23" s="4">
         <v>0.222</v>
       </c>
-      <c r="X23" s="5">
+      <c r="AB23" s="5">
         <v>0.495</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="AC23" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Z23" s="5">
+      <c r="AD23" s="5">
         <v>-1.2E-2</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AE23" s="5">
         <v>0.03</v>
       </c>
-      <c r="AB23" s="6">
+      <c r="AF23" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>33</v>
-      </c>
       <c r="E24" s="8">
-        <v>2120</v>
+        <v>1409</v>
       </c>
       <c r="F24" s="8">
         <v>360182</v>
       </c>
       <c r="G24" s="7">
-        <v>0.24199999999999999</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="H24" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="I24" s="8">
-        <v>0.22700000000000001</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="J24" s="8">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K24" s="9">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L24" s="7">
-        <v>4.3</v>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K24" s="8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="M24" s="8">
-        <v>67.099999999999994</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="N24" s="8">
-        <v>16.8</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="O24" s="9">
-        <v>11.8</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="P24" s="7">
         <v>0.4</v>
@@ -3349,53 +3543,55 @@
         <v>4.8</v>
       </c>
       <c r="U24" s="9"/>
-      <c r="V24" s="20">
+      <c r="V24" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="W24" s="8">
+        <v>54.6</v>
+      </c>
+      <c r="X24" s="8">
+        <v>19.7</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>21.3</v>
+      </c>
+      <c r="Z24" s="20">
         <v>3.81</v>
       </c>
-      <c r="W24" s="8">
+      <c r="AA24" s="7">
         <v>0.24399999999999999</v>
       </c>
-      <c r="X24" s="8">
+      <c r="AB24" s="8">
         <v>0.45</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="AC24" s="8">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="AD24" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AE24" s="8">
         <v>0.04</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AF24" s="9">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="26" spans="1:28" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D28" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:K24">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="G2:O24">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color theme="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:O24">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="P2:U24">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3404,279 +3600,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:U24">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="V2:Y24">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color theme="5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:AB24">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="Z2:Z24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="2"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AF24">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color theme="0"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V24">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC273F68D44EF549AD1BD0E5D55B5B7C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="315063b799ab555b4e77865ce3b3361e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35b81125-b047-47c8-b0b0-722baac7a528" xmlns:ns3="5fe89d89-77ff-4a7d-998d-403e04f568fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfebddd8dbdab9d9b5a54d21a7ba6ecf" ns2:_="" ns3:_="">
-    <xsd:import namespace="35b81125-b047-47c8-b0b0-722baac7a528"/>
-    <xsd:import namespace="5fe89d89-77ff-4a7d-998d-403e04f568fa"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="35b81125-b047-47c8-b0b0-722baac7a528" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5fe89d89-77ff-4a7d-998d-403e04f568fa" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB9E6FD-B6C8-48C7-8E95-28C944B73254}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C605B08E-7AE1-40FA-AD6A-8F361094C1DE}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DC4B4B0-C180-42B3-9093-3D878B8B09DB}"/>
 </file>